--- a/all_dataset/review/cbs_me_review.xlsx
+++ b/all_dataset/review/cbs_me_review.xlsx
@@ -4060,10 +4060,10 @@
         <v>1.75</v>
       </c>
       <c r="E2">
-        <v>0.00398</v>
+        <v>0.5475485</v>
       </c>
       <c r="F2">
-        <v>0.01603103986199951</v>
+        <v>2.205470309014583</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -4077,10 +4077,10 @@
         <v>1.649999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.0199</v>
+        <v>0.5236685</v>
       </c>
       <c r="F3">
-        <v>-0.08134636941275934</v>
+        <v>2.140629711096762</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -4094,10 +4094,10 @@
         <v>97.65000000000001</v>
       </c>
       <c r="E4">
-        <v>0.06368</v>
+        <v>0.6072485</v>
       </c>
       <c r="F4">
-        <v>-0.2373337252813305</v>
+        <v>-2.263199570924937</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -4111,10 +4111,10 @@
         <v>1.350000000000001</v>
       </c>
       <c r="E5">
-        <v>-0.0199</v>
+        <v>0.5236685</v>
       </c>
       <c r="F5">
-        <v>-0.08540032543636389</v>
+        <v>2.247309563857915</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -4128,10 +4128,10 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F6">
-        <v>-0.07721267692132359</v>
+        <v>1.328830169815979</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -4145,10 +4145,10 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>-0.0199</v>
+        <v>0.5236685</v>
       </c>
       <c r="F7">
-        <v>-0.04860270600384717</v>
+        <v>1.278980208491238</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -4162,10 +4162,10 @@
         <v>4.5</v>
       </c>
       <c r="E8">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F8">
-        <v>0.1398295858970155</v>
+        <v>1.800457907104397</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -4179,10 +4179,10 @@
         <v>1.200000000000003</v>
       </c>
       <c r="E9">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F9">
-        <v>0.201881219715123</v>
+        <v>2.599440139940595</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -4196,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.889497750685725</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -4213,10 +4213,10 @@
         <v>1.649999999999999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.221976080509521</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -4230,10 +4230,10 @@
         <v>2.5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.991396708644223</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -4247,10 +4247,10 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F13">
-        <v>0.1058950707085975</v>
+        <v>1.363514138710919</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -4264,10 +4264,10 @@
         <v>1.5</v>
       </c>
       <c r="E14">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F14">
-        <v>-0.1665467393147812</v>
+        <v>2.108065352876842</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -4281,10 +4281,10 @@
         <v>0.5</v>
       </c>
       <c r="E15">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F15">
-        <v>-0.2106735320240348</v>
+        <v>2.66660023159422</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -4298,10 +4298,10 @@
         <v>1.399999999999999</v>
       </c>
       <c r="E16">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F16">
-        <v>-0.1693330411944977</v>
+        <v>2.143332968919354</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -4315,10 +4315,10 @@
         <v>1.100000000000001</v>
       </c>
       <c r="E17">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F17">
-        <v>-0.1790522025412087</v>
+        <v>2.266353253665349</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -4332,10 +4332,10 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F18">
-        <v>-0.2106735320240348</v>
+        <v>2.66660023159422</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -4349,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F19">
-        <v>-0.1828857700353567</v>
+        <v>2.314876634222527</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -4366,10 +4366,10 @@
         <v>0.8999999999999986</v>
       </c>
       <c r="E20">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F20">
-        <v>-0.1871193002883521</v>
+        <v>2.368462543399816</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -4383,10 +4383,10 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.889497750685725</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4400,10 +4400,10 @@
         <v>2.5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.991396708644223</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4417,10 +4417,10 @@
         <v>1.5</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.274612092191624</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4434,10 +4434,10 @@
         <v>2.5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.991396708644223</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4451,10 +4451,10 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F25">
-        <v>0.1591010370337604</v>
+        <v>2.048598787719485</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -4468,10 +4468,10 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F26">
-        <v>0.02633441691223602</v>
+        <v>0.3390842421112478</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4485,10 +4485,10 @@
         <v>24.5</v>
       </c>
       <c r="E27">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F27">
-        <v>0.05151228308649571</v>
+        <v>0.6632766363506828</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4502,10 +4502,10 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F28">
-        <v>0.0527581411698799</v>
+        <v>0.6793184133678232</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4519,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F29">
-        <v>0.03878082306992231</v>
+        <v>0.499345250093804</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4536,10 +4536,10 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F30">
-        <v>0.134766972076448</v>
+        <v>1.735271251323481</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F31">
-        <v>0.1781286150445234</v>
+        <v>2.293599536758069</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4570,10 +4570,10 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F32">
-        <v>0.1454595238150255</v>
+        <v>1.872949477296513</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4587,10 +4587,10 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F33">
-        <v>0.134766972076448</v>
+        <v>1.735271251323481</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4604,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F34">
-        <v>0.1591010370337604</v>
+        <v>2.048598787719485</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4621,10 +4621,10 @@
         <v>13</v>
       </c>
       <c r="E35">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F35">
-        <v>0.08700688249980576</v>
+        <v>1.120308184883368</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4638,10 +4638,10 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F36">
-        <v>0.07257415986139727</v>
+        <v>0.934471193171861</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4655,10 +4655,10 @@
         <v>1.5</v>
       </c>
       <c r="E37">
-        <v>0.2388</v>
+        <v>0.7823684999999999</v>
       </c>
       <c r="F37">
-        <v>0.999280435888687</v>
+        <v>3.27389252808031</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4672,10 +4672,10 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F38">
-        <v>0.1781286150445234</v>
+        <v>2.293599536758069</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4689,10 +4689,10 @@
         <v>1.5</v>
       </c>
       <c r="E39">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F39">
-        <v>0.1915287502119983</v>
+        <v>2.466140842403622</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4706,10 +4706,10 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F40">
-        <v>0.1781286150445234</v>
+        <v>2.293599536758069</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4723,10 +4723,10 @@
         <v>3.5</v>
       </c>
       <c r="E41">
-        <v>0.0199</v>
+        <v>0.5634684999999999</v>
       </c>
       <c r="F41">
-        <v>0.06600392279300649</v>
+        <v>1.868901073883978</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4740,10 +4740,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F42">
-        <v>0.134766972076448</v>
+        <v>1.735271251323481</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F43">
-        <v>-0.1383487278554439</v>
+        <v>1.751149022830281</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4774,10 +4774,10 @@
         <v>4.5</v>
       </c>
       <c r="E44">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F44">
-        <v>-0.1215909442582743</v>
+        <v>1.539037376949107</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4791,10 +4791,10 @@
         <v>6.5</v>
       </c>
       <c r="E45">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F45">
-        <v>-0.1061131385238434</v>
+        <v>1.343127050865548</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4808,10 +4808,10 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F46">
-        <v>-0.1095111054590696</v>
+        <v>1.386136817348173</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4825,10 +4825,10 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F47">
-        <v>-0.1383487278554439</v>
+        <v>1.751149022830281</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4842,10 +4842,10 @@
         <v>6</v>
       </c>
       <c r="E48">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F48">
-        <v>-0.1095111054590696</v>
+        <v>1.386136817348173</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4859,10 +4859,10 @@
         <v>0.5</v>
       </c>
       <c r="E49">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F49">
-        <v>-0.2106735320240348</v>
+        <v>2.66660023159422</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4876,10 +4876,10 @@
         <v>9.5</v>
       </c>
       <c r="E50">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F50">
-        <v>-0.3498748908468666</v>
+        <v>0.8753600634457182</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4893,10 +4893,10 @@
         <v>7.5</v>
       </c>
       <c r="E51">
-        <v>-0.04975</v>
+        <v>0.4938184999999999</v>
       </c>
       <c r="F51">
-        <v>-0.1249872047928117</v>
+        <v>1.240622994773449</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4910,10 +4910,10 @@
         <v>7.5</v>
       </c>
       <c r="E52">
-        <v>-0.074625</v>
+        <v>0.4689435</v>
       </c>
       <c r="F52">
-        <v>-0.1874808071892176</v>
+        <v>1.178129392377043</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4927,10 +4927,10 @@
         <v>97.25</v>
       </c>
       <c r="E53">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F53">
-        <v>0.2128713390279586</v>
+        <v>-1.725322202821605</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4944,10 +4944,10 @@
         <v>85.5</v>
       </c>
       <c r="E54">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F54">
-        <v>0.1059297532730163</v>
+        <v>-0.8585606502777972</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4961,10 +4961,10 @@
         <v>94</v>
       </c>
       <c r="E55">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F55">
-        <v>0.1642666581886044</v>
+        <v>-1.331381264618638</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4978,10 +4978,10 @@
         <v>94</v>
       </c>
       <c r="E56">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F56">
-        <v>0.1642666581886044</v>
+        <v>-1.331381264618638</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4995,10 +4995,10 @@
         <v>97</v>
       </c>
       <c r="E57">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F57">
-        <v>0.207523091783166</v>
+        <v>-1.681974658902561</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -5012,10 +5012,10 @@
         <v>98</v>
       </c>
       <c r="E58">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F58">
-        <v>0.2323416717972044</v>
+        <v>-1.883129249916341</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -5029,10 +5029,10 @@
         <v>97.5</v>
       </c>
       <c r="E59">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F59">
-        <v>0.2187146302739401</v>
+        <v>-1.772682078370284</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -5046,10 +5046,10 @@
         <v>99</v>
       </c>
       <c r="E60">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F60">
-        <v>0.2743286550530347</v>
+        <v>-2.223433749204846</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -5063,10 +5063,10 @@
         <v>20</v>
       </c>
       <c r="E61">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F61">
-        <v>-0.2151806107330294</v>
+        <v>0.5383653356993678</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -5080,10 +5080,10 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F62">
-        <v>0.07939269030511363</v>
+        <v>1.022267184080843</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -5097,10 +5097,10 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>0.0398</v>
+        <v>0.5833685</v>
       </c>
       <c r="F63">
-        <v>0.1171886713708243</v>
+        <v>1.717692950617857</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -5114,10 +5114,10 @@
         <v>4.5</v>
       </c>
       <c r="E64">
-        <v>0.0398</v>
+        <v>0.5833685</v>
       </c>
       <c r="F64">
-        <v>0.1215909442582743</v>
+        <v>1.782219265465656</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -5131,10 +5131,10 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F65">
-        <v>0.06558715363348615</v>
+        <v>-1.128754914032296</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -5148,10 +5148,10 @@
         <v>88</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F66">
-        <v>-0</v>
+        <v>-1.083022275975408</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -5165,10 +5165,10 @@
         <v>37</v>
       </c>
       <c r="E67">
-        <v>0.0398</v>
+        <v>0.5833685</v>
       </c>
       <c r="F67">
-        <v>0.02118222918714287</v>
+        <v>0.3104785243105466</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -5182,10 +5182,10 @@
         <v>4</v>
       </c>
       <c r="E68">
-        <v>0.0796</v>
+        <v>0.6231685</v>
       </c>
       <c r="F68">
-        <v>0.2529730848956965</v>
+        <v>1.980463038377184</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -5199,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="E69">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F69">
-        <v>0.1591010370337604</v>
+        <v>2.048598787719485</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -5216,10 +5216,10 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.889497750685725</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -5233,10 +5233,10 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1.600504279247033</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -5250,10 +5250,10 @@
         <v>40</v>
       </c>
       <c r="E72">
-        <v>-0.03582</v>
+        <v>0.5077484999999999</v>
       </c>
       <c r="F72">
-        <v>-0.01452376017243445</v>
+        <v>0.2058743004442583</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -5267,10 +5267,10 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>-0.03582</v>
+        <v>0.5077484999999999</v>
       </c>
       <c r="F73">
-        <v>-0.1054698042337419</v>
+        <v>1.495034475013291</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -5284,10 +5284,10 @@
         <v>3.5</v>
       </c>
       <c r="E74">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F74">
-        <v>-0.09900588418950973</v>
+        <v>1.703891266901462</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -5301,10 +5301,10 @@
         <v>4.5</v>
       </c>
       <c r="E75">
-        <v>-0.02985</v>
+        <v>0.5137185</v>
       </c>
       <c r="F75">
-        <v>-0.09119320819370576</v>
+        <v>1.569435113013676</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -5318,10 +5318,10 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F76">
-        <v>-0.1095111054590696</v>
+        <v>1.386136817348173</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -5335,10 +5335,10 @@
         <v>2.5</v>
       </c>
       <c r="E77">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F77">
-        <v>-0.1458097535159599</v>
+        <v>1.845586955128263</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="100" customHeight="1">
@@ -5352,10 +5352,10 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <v>0.06965</v>
+        <v>0.6132185</v>
       </c>
       <c r="F78">
-        <v>0.2050801748989426</v>
+        <v>1.805584454145976</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="100" customHeight="1">
@@ -5369,10 +5369,10 @@
         <v>3.5</v>
       </c>
       <c r="E79">
-        <v>0.06965</v>
+        <v>0.6132185</v>
       </c>
       <c r="F79">
-        <v>0.2310137297755227</v>
+        <v>2.033910880866495</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="100" customHeight="1">
@@ -5386,10 +5386,10 @@
         <v>2.100000000000001</v>
       </c>
       <c r="E80">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F80">
-        <v>0.1758487613040204</v>
+        <v>2.264243941747201</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="100" customHeight="1">
@@ -5403,10 +5403,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F81">
-        <v>0.2103186355406602</v>
+        <v>2.708081039798544</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="100" customHeight="1">
@@ -5420,10 +5420,10 @@
         <v>2.5</v>
       </c>
       <c r="E82">
-        <v>-0.0398</v>
+        <v>0.5037685</v>
       </c>
       <c r="F82">
-        <v>-0.1458097535159599</v>
+        <v>1.845586955128263</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="100" customHeight="1">
@@ -5437,10 +5437,10 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>-0.0597</v>
+        <v>0.4838685</v>
       </c>
       <c r="F83">
-        <v>-0.2323416717972044</v>
+        <v>1.883129249916342</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -5454,10 +5454,10 @@
         <v>9.5</v>
       </c>
       <c r="E84">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F84">
-        <v>-0.3498748908468666</v>
+        <v>0.8753600634457182</v>
       </c>
     </row>
   </sheetData>

--- a/all_dataset/review/cbs_me_review.xlsx
+++ b/all_dataset/review/cbs_me_review.xlsx
@@ -22,7 +22,7 @@
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
+    <t>InChIKey</t>
   </si>
   <si>
     <t>er.</t>
